--- a/data/Teaching.xlsx
+++ b/data/Teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/CV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35866FD-63B3-8C4C-B5A0-94613BA3E1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146CC944-C36E-E34E-8E02-A6D830B13226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>EPSY 887 Intro to R for Academic Researchers</t>
   </si>
   <si>
-    <t>Spring 2020</t>
-  </si>
-  <si>
     <t>EPSY 630 Statistics II</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   <si>
     <t>Emphasis is on statistical inference. Topics include one- and two-way analysis of variance, multiple comparison tests, correlation and regression techniques, chi square, and nonparametric statistics.
 Course website: https://epsy630.bryer.org</t>
+  </si>
+  <si>
+    <t>Spring 2020, 2021</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,16 +559,16 @@
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">

--- a/data/Teaching.xlsx
+++ b/data/Teaching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/CV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146CC944-C36E-E34E-8E02-A6D830B13226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED004A74-7218-BB49-B098-68E8DC287D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -155,6 +155,24 @@
   </si>
   <si>
     <t>Spring 2020, 2021</t>
+  </si>
+  <si>
+    <t>DATA 661 Independent Study</t>
+  </si>
+  <si>
+    <t>Srping 2022</t>
+  </si>
+  <si>
+    <t>Fall 2022</t>
+  </si>
+  <si>
+    <t>DATA 661 Benchmarking Predictive Models</t>
+  </si>
+  <si>
+    <t>Worked with students on mapping data in R, sentiment analysis, topic modeling, and creating Shiny modules for data import and analysis.</t>
+  </si>
+  <si>
+    <t>Benchmarking Predictive Models - Developed an R package with students to benchmark predictive models. Package website: https://github.com/jbryer/mldash</t>
   </si>
 </sst>
 </file>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A17EE-E0D7-9E41-B6EA-495CBEA2D76E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,129 +575,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
